--- a/stocks/stock.xlsx
+++ b/stocks/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\sync_ck\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A669D7B3-1888-43A4-928B-7D706958B4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E274C8-DA89-4689-BCA9-4886E800ED67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16D9E207-1BCC-4341-A13E-FAA310A63787}"/>
   </bookViews>
@@ -2081,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BEF514-63EE-4F24-A245-468141AAE117}">
   <dimension ref="A1:C2143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2109" workbookViewId="0">
-      <selection activeCell="H2123" sqref="H2123"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/stocks/stock.xlsx
+++ b/stocks/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\sync_ck\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE80018-E16E-4959-B94A-D4B0E12CB649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4D0B07-AD14-4908-8668-703607F917B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16D9E207-1BCC-4341-A13E-FAA310A63787}"/>
   </bookViews>
@@ -2107,7 +2107,7 @@
   <dimension ref="A1:C2143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="E556" sqref="E556"/>
+      <selection activeCell="I551" sqref="I551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8234,7 +8234,10 @@
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
-      <c r="C557" s="2"/>
+      <c r="C557" s="2">
+        <f>SUM(C2:C556)</f>
+        <v>39158</v>
+      </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
